--- a/data/long_razon/P24_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_1-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-22,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 29,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,75; -13,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 6,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 32,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 5,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,97; -10,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 62,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 39,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 34,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 16,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 32,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 16,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 17,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 24,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>117,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-59,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 295,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-77,87; -33,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 136,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 22,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 9,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 132,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 100,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,53; -24,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 102,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,78; -4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 12,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 14,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_1-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_1-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.01787393007456428</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2466435187236636</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3328207722311834</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2566061253075285</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.168216391168112</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1216755232033453</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.04958716284239342</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1204480058300958</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3571316416040371</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2869263824007966</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.072787035975732</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.103652004020197</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2243713938096201</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.3071269049035636</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.2282743080891673</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.25609697466601</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4181256499992771</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4906747485962206</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.05170519610022916</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1372096394073624</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2828322057849292</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1627664793355188</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2685418568443215</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.07772167524618104</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.03257817072604246</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.2337277568808951</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2476316761401939</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.3401836289195843</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.09214842894422416</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.02499478343394083</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3061686187723591</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.004912969996037629</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.1492068130652708</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8484865664500572</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5604023513025189</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1001345724541161</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3009484201748393</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.05742797186552474</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.7362453346903691</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.638844582578784</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.09933105061005154</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.05631873326789404</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>-0.0897729454597867</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.641881164157598</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.4917657965251578</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.06032780618293486</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01301660257379931</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.08065842822061681</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.04529001087210957</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.390230965585239</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1722735573137296</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1381089186871447</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.05841521433697783</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3246061244376152</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6418263243232241</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.06896123276744025</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.07181969161470592</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.06906570171826776</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.1379076919378292</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1.008229727519003</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2263237269338357</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2557603677709258</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1718621302241077</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3104253901053477</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.4404877645294482</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3734373883931996</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3200972868383107</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1208540232637346</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.05021720800094465</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.03072882827505851</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2283222971911715</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2271683719256175</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1023348657611214</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.06683634359398363</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.3988287237206281</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4260644695141542</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4141707987565782</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4582957724838215</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3546584753446511</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.384821158357752</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.07232975356415114</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.08330418377392472</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2892398052499415</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6972600271172886</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.704407609160774</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1531110379245961</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.1324867935141065</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.261299317337412</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.3827666282277733</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.888591877785631</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.9357414126088658</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5950945546847737</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3216435964679307</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.669513958095223</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.2615164253447461</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2531262607661136</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.5533802231323046</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.05363653321550776</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.2132453918101499</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.4466818296143226</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.4351147269836455</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2377229039782267</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.0190607532947956</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.7764737491965437</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2660935272803506</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2319933356208148</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.5448538355034003</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5548416973398597</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.04283302103361163</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.432540049635881</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.173253910520216</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.6210485738675676</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.0358173467770498</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1980316306133271</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>2.907374271840619</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.3180587336580515</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.288813809726558</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.950708495953919</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.2104611093076336</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.1970450065081825</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.357254140287672</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.5612702886997709</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.8568274865304975</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.2388357797865223</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>1.076240015824071</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>1.013618123954355</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1068643676964369</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2221051023852134</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1183901164225857</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1704875754663651</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3907146653327287</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1598144894710907</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.06391276075338991</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.007412995877635263</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2861843893724575</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3525017177025524</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.03935261829919697</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1423892484732786</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.05390979851927825</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.2296113213555005</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.3713503799726071</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1033823360347431</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3673470000059153</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2616547162234168</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.0668094771742628</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1027616739815557</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2848222372955913</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1952321838581799</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1186949553337935</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1047861196335685</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1025233998447759</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1495946205662853</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2448479477057035</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1459456943923971</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.07131941454118705</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0.1628416630275784</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.354769482053601</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.06652013693452044</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.04788950376152748</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5036836088506327</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8582755638712419</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.02605045584471888</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.0833548165727953</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1443473637897155</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5068887492808899</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6632445139426474</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.09054182123320058</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.03809569059357704</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.05990216671072741</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.4152134862396158</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.6108137981643386</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
